--- a/first_pass/welfare_results/isoelastic_WR/human_welfare/human_wWL_isoelastic.xlsx
+++ b/first_pass/welfare_results/isoelastic_WR/human_welfare/human_wWL_isoelastic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total_welfare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forebrain_neurons</t>
   </si>
 </sst>
 </file>
@@ -368,6 +371,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -382,6 +388,9 @@
       <c r="D2" t="n">
         <v>71875973378.8662</v>
       </c>
+      <c r="E2" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -396,6 +405,9 @@
       <c r="D3" t="n">
         <v>72970279030.986</v>
       </c>
+      <c r="E3" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -410,6 +422,9 @@
       <c r="D4" t="n">
         <v>74173880407.5618</v>
       </c>
+      <c r="E4" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -424,6 +439,9 @@
       <c r="D5" t="n">
         <v>75463417746.3561</v>
       </c>
+      <c r="E5" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -438,6 +456,9 @@
       <c r="D6" t="n">
         <v>76764618768.984</v>
       </c>
+      <c r="E6" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -452,6 +473,9 @@
       <c r="D7" t="n">
         <v>78053494573.1416</v>
       </c>
+      <c r="E7" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -466,6 +490,9 @@
       <c r="D8" t="n">
         <v>79315945410.7005</v>
       </c>
+      <c r="E8" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -480,6 +507,9 @@
       <c r="D9" t="n">
         <v>80579939677.7427</v>
       </c>
+      <c r="E9" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -494,6 +524,9 @@
       <c r="D10" t="n">
         <v>81849050662.1052</v>
       </c>
+      <c r="E10" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -508,6 +541,9 @@
       <c r="D11" t="n">
         <v>83145463496.1339</v>
       </c>
+      <c r="E11" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -522,6 +558,9 @@
       <c r="D12" t="n">
         <v>84458695172.7051</v>
       </c>
+      <c r="E12" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +575,9 @@
       <c r="D13" t="n">
         <v>85883653727.668</v>
       </c>
+      <c r="E13" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -550,6 +592,9 @@
       <c r="D14" t="n">
         <v>87238810115.5982</v>
       </c>
+      <c r="E14" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -564,6 +609,9 @@
       <c r="D15" t="n">
         <v>88593850869.9642</v>
       </c>
+      <c r="E15" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -578,6 +626,9 @@
       <c r="D16" t="n">
         <v>89943132503.7212</v>
       </c>
+      <c r="E16" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -592,6 +643,9 @@
       <c r="D17" t="n">
         <v>91278853998.8407</v>
       </c>
+      <c r="E17" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -606,6 +660,9 @@
       <c r="D18" t="n">
         <v>92598842871.7328</v>
       </c>
+      <c r="E18" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -620,6 +677,9 @@
       <c r="D19" t="n">
         <v>93929598603.7841</v>
       </c>
+      <c r="E19" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -634,6 +694,9 @@
       <c r="D20" t="n">
         <v>95283844679.6222</v>
       </c>
+      <c r="E20" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -648,6 +711,9 @@
       <c r="D21" t="n">
         <v>96678842814.4871</v>
       </c>
+      <c r="E21" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -662,6 +728,9 @@
       <c r="D22" t="n">
         <v>98099238359.3478</v>
       </c>
+      <c r="E22" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -676,6 +745,9 @@
       <c r="D23" t="n">
         <v>99558232149.0818</v>
       </c>
+      <c r="E23" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -690,6 +762,9 @@
       <c r="D24" t="n">
         <v>101011644108.379</v>
       </c>
+      <c r="E24" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -704,6 +779,9 @@
       <c r="D25" t="n">
         <v>102445180425.979</v>
       </c>
+      <c r="E25" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -718,6 +796,9 @@
       <c r="D26" t="n">
         <v>103877061427.287</v>
       </c>
+      <c r="E26" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -732,6 +813,9 @@
       <c r="D27" t="n">
         <v>105331643449.873</v>
       </c>
+      <c r="E27" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -746,6 +830,9 @@
       <c r="D28" t="n">
         <v>106818573880.231</v>
       </c>
+      <c r="E28" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -760,6 +847,9 @@
       <c r="D29" t="n">
         <v>108333498836.052</v>
       </c>
+      <c r="E29" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -774,6 +864,9 @@
       <c r="D30" t="n">
         <v>109858039772.71</v>
       </c>
+      <c r="E30" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -788,6 +881,9 @@
       <c r="D31" t="n">
         <v>111402891023.107</v>
       </c>
+      <c r="E31" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -802,6 +898,9 @@
       <c r="D32" t="n">
         <v>112943057026.387</v>
       </c>
+      <c r="E32" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -816,6 +915,9 @@
       <c r="D33" t="n">
         <v>117696486285.863</v>
       </c>
+      <c r="E33" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -830,6 +932,9 @@
       <c r="D34" t="n">
         <v>122608877006.874</v>
       </c>
+      <c r="E34" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -844,6 +949,9 @@
       <c r="D35" t="n">
         <v>127672515307.512</v>
       </c>
+      <c r="E35" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -858,6 +966,9 @@
       <c r="D36" t="n">
         <v>133231202970.311</v>
       </c>
+      <c r="E36" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -872,6 +983,9 @@
       <c r="D37" t="n">
         <v>139443173848.294</v>
       </c>
+      <c r="E37" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -886,6 +1000,9 @@
       <c r="D38" t="n">
         <v>146056361187.774</v>
       </c>
+      <c r="E38" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -900,6 +1017,9 @@
       <c r="D39" t="n">
         <v>152282269108.99</v>
       </c>
+      <c r="E39" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -914,6 +1034,9 @@
       <c r="D40" t="n">
         <v>156433943927.32</v>
       </c>
+      <c r="E40" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -928,6 +1051,9 @@
       <c r="D41" t="n">
         <v>162463920373.717</v>
       </c>
+      <c r="E41" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -942,6 +1068,9 @@
       <c r="D42" t="n">
         <v>170453298358.04</v>
       </c>
+      <c r="E42" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -956,6 +1085,9 @@
       <c r="D43" t="n">
         <v>177260363337.847</v>
       </c>
+      <c r="E43" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -970,6 +1102,9 @@
       <c r="D44" t="n">
         <v>184023048980.509</v>
       </c>
+      <c r="E44" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -984,6 +1119,9 @@
       <c r="D45" t="n">
         <v>192148972286.022</v>
       </c>
+      <c r="E45" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -998,6 +1136,9 @@
       <c r="D46" t="n">
         <v>202981720843.945</v>
       </c>
+      <c r="E46" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1012,6 +1153,9 @@
       <c r="D47" t="n">
         <v>214206152835.535</v>
       </c>
+      <c r="E47" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1026,6 +1170,9 @@
       <c r="D48" t="n">
         <v>227494222116.742</v>
       </c>
+      <c r="E48" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1040,6 +1187,9 @@
       <c r="D49" t="n">
         <v>240367639974.61</v>
       </c>
+      <c r="E49" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1054,6 +1204,9 @@
       <c r="D50" t="n">
         <v>250301163566.851</v>
       </c>
+      <c r="E50" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1068,6 +1221,9 @@
       <c r="D51" t="n">
         <v>255770015987.983</v>
       </c>
+      <c r="E51" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1082,6 +1238,9 @@
       <c r="D52" t="n">
         <v>266930156337.524</v>
       </c>
+      <c r="E52" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1096,6 +1255,9 @@
       <c r="D53" t="n">
         <v>278067982707.298</v>
       </c>
+      <c r="E53" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1110,6 +1272,9 @@
       <c r="D54" t="n">
         <v>288349680538.011</v>
       </c>
+      <c r="E54" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1124,6 +1289,9 @@
       <c r="D55" t="n">
         <v>297845454073.234</v>
       </c>
+      <c r="E55" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1138,6 +1306,9 @@
       <c r="D56" t="n">
         <v>306012272427.65</v>
       </c>
+      <c r="E56" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1152,6 +1323,9 @@
       <c r="D57" t="n">
         <v>311905743668.554</v>
       </c>
+      <c r="E57" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1166,6 +1340,9 @@
       <c r="D58" t="n">
         <v>320828591080.007</v>
       </c>
+      <c r="E58" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1180,6 +1357,9 @@
       <c r="D59" t="n">
         <v>331680999886.793</v>
       </c>
+      <c r="E59" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1194,6 +1374,9 @@
       <c r="D60" t="n">
         <v>344340661969.689</v>
       </c>
+      <c r="E60" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1208,6 +1391,9 @@
       <c r="D61" t="n">
         <v>356228777528.692</v>
       </c>
+      <c r="E61" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1222,6 +1408,9 @@
       <c r="D62" t="n">
         <v>357948659514.822</v>
       </c>
+      <c r="E62" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1236,6 +1425,9 @@
       <c r="D63" t="n">
         <v>378368583647.058</v>
       </c>
+      <c r="E63" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1250,6 +1442,9 @@
       <c r="D64" t="n">
         <v>399501251559.979</v>
       </c>
+      <c r="E64" t="n">
+        <v>24560000000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1263,6 +1458,9 @@
       </c>
       <c r="D65" t="n">
         <v>414403236440.248</v>
+      </c>
+      <c r="E65" t="n">
+        <v>24560000000</v>
       </c>
     </row>
   </sheetData>
